--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ki-m-th-b-i-t-p-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6A449-EC0D-4489-8D21-18B10A19551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFFA208-D62D-4573-851E-F628285B533E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Customer" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="307">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -527,9 +527,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Tính</t>
   </si>
   <si>
     <t>T34 Account No</t>
@@ -1571,7 +1568,7 @@
   </sheetPr>
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
+    <sheetView topLeftCell="H4" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1587,7 +1584,7 @@
     <col min="8" max="16384" width="12.6328125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13">
+    <row r="1" spans="1:22" ht="78">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1652,10 +1649,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="112.5">
@@ -1681,10 +1678,10 @@
         <v>21</v>
       </c>
       <c r="H3" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="112.5">
@@ -1710,10 +1707,10 @@
         <v>27</v>
       </c>
       <c r="H4" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="112.5">
@@ -1739,10 +1736,10 @@
         <v>33</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="112.5">
@@ -1768,10 +1765,10 @@
         <v>39</v>
       </c>
       <c r="H6" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="112.5">
@@ -1797,10 +1794,10 @@
         <v>45</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="112.5">
@@ -1826,10 +1823,10 @@
         <v>27</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="87.5">
@@ -1855,10 +1852,10 @@
         <v>55</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="112.5">
@@ -1884,10 +1881,10 @@
         <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="112.5">
@@ -1913,10 +1910,10 @@
         <v>65</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1">
@@ -1997,7 +1994,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
@@ -2064,10 +2061,10 @@
         <v>71</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="37.5">
@@ -2093,10 +2090,10 @@
         <v>75</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25">
@@ -2122,10 +2119,10 @@
         <v>79</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25">
@@ -2151,10 +2148,10 @@
         <v>83</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25">
@@ -2180,10 +2177,10 @@
         <v>86</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2198,7 +2195,7 @@
   </sheetPr>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
@@ -2266,10 +2263,10 @@
         <v>90</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="37.5">
@@ -2295,10 +2292,10 @@
         <v>94</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="37.5">
@@ -2324,10 +2321,10 @@
         <v>97</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="37.5">
@@ -2353,10 +2350,10 @@
         <v>101</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="25">
@@ -2382,10 +2379,10 @@
         <v>104</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="37.5">
@@ -2411,10 +2408,10 @@
         <v>26</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2451,8 +2448,8 @@
   </sheetPr>
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I2" sqref="A1:I11"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2467,7 +2464,7 @@
     <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="13">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2535,210 +2532,210 @@
         <v>114</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="112.5">
       <c r="A3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="112.5">
       <c r="A4" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>126</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="125">
       <c r="A5" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="I5" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="100">
       <c r="A6" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>112</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="I6" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="125">
       <c r="A7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="I7" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="125">
       <c r="A8" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>150</v>
-      </c>
       <c r="H8" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="125">
       <c r="A9" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>154</v>
-      </c>
       <c r="G9" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>133</v>
-      </c>
       <c r="I9" s="21" t="s">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -2760,31 +2757,31 @@
     </row>
     <row r="10" spans="1:27" ht="100">
       <c r="A10" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>158</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>112</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>133</v>
-      </c>
       <c r="I10" s="21" t="s">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -2807,31 +2804,31 @@
     </row>
     <row r="11" spans="1:27" ht="125">
       <c r="A11" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>162</v>
-      </c>
       <c r="E11" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>133</v>
-      </c>
       <c r="I11" s="21" t="s">
-        <v>115</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2846,7 +2843,7 @@
   </sheetPr>
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
@@ -2906,292 +2903,292 @@
     </row>
     <row r="2" spans="1:22" ht="25">
       <c r="A2" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>168</v>
-      </c>
       <c r="G2" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="25">
       <c r="A3" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>172</v>
-      </c>
       <c r="G3" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="25">
       <c r="A4" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>176</v>
-      </c>
       <c r="G4" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="25">
       <c r="A5" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="E5" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>181</v>
-      </c>
       <c r="G5" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="25">
       <c r="A6" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="E6" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>185</v>
-      </c>
       <c r="F6" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="25">
       <c r="A7" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="E7" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>189</v>
-      </c>
       <c r="F7" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="25">
       <c r="A8" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="C8" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>194</v>
-      </c>
       <c r="G8" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="12.5">
       <c r="A100" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="C100" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D100" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="G100" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>114</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="12.5">
       <c r="A101" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="C101" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D101" s="7" t="s">
+      <c r="E101" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="G101" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>114</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="12.5">
       <c r="A102" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="C102" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D102" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="F102" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F102" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="G102" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>114</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3206,7 +3203,7 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I10"/>
     </sheetView>
   </sheetViews>
@@ -3255,263 +3252,263 @@
     </row>
     <row r="2" spans="1:10" ht="50">
       <c r="A2" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>214</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>215</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="37.5">
       <c r="A3" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>220</v>
-      </c>
       <c r="G3" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="37.5">
       <c r="A4" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>225</v>
-      </c>
       <c r="G4" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="37.5">
       <c r="A5" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="E5" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>229</v>
-      </c>
       <c r="F5" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="37.5">
       <c r="A6" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="E6" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>234</v>
-      </c>
       <c r="G6" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5">
       <c r="A7" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="E7" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="G7" s="26" t="s">
         <v>239</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>240</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="37.5">
       <c r="A8" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="C8" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="G8" s="26" t="s">
         <v>245</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>246</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="37.5">
       <c r="A9" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="C9" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>251</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="37.5">
       <c r="A10" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="C10" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>254</v>
-      </c>
       <c r="G10" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3526,7 +3523,7 @@
   </sheetPr>
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
@@ -3586,292 +3583,292 @@
     </row>
     <row r="2" spans="1:22" ht="25">
       <c r="A2" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>260</v>
-      </c>
       <c r="G2" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="37.5">
       <c r="A3" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>264</v>
-      </c>
       <c r="F3" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="37.5">
       <c r="A4" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>268</v>
-      </c>
       <c r="F4" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="25">
       <c r="A5" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="E5" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>273</v>
-      </c>
       <c r="G5" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="37.5">
       <c r="A6" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="E6" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>277</v>
-      </c>
       <c r="F6" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="37.5">
       <c r="A7" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="E7" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>281</v>
-      </c>
       <c r="F7" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="25">
       <c r="A8" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>181</v>
-      </c>
       <c r="G8" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="25">
       <c r="A9" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>185</v>
-      </c>
       <c r="F9" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="25">
       <c r="A10" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" s="26" t="s">
+      <c r="E10" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>189</v>
-      </c>
       <c r="F10" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="25">
       <c r="A11" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="26" t="s">
+      <c r="E11" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>194</v>
-      </c>
       <c r="G11" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>114</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3886,7 +3883,7 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3933,110 +3930,110 @@
     </row>
     <row r="2" spans="1:9" ht="12.5">
       <c r="A2" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>288</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>289</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.5">
       <c r="A3" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="26" t="s">
         <v>293</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>294</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.5">
       <c r="A4" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>297</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>298</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25">
       <c r="A5" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>300</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>301</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
